--- a/datosConsultobra.xlsx
+++ b/datosConsultobra.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\ProyectosFreelance\Consultobra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED2D4BC-B85E-4F28-BA3B-49BC87BDE0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8276CFF4-704A-437B-9B04-2C394BF06690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EA4442BD-62B4-470A-AA00-80263685D416}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="116">
   <si>
     <t>N°R</t>
   </si>
@@ -436,6 +436,15 @@
   </si>
   <si>
     <t>7009</t>
+  </si>
+  <si>
+    <t>Activo</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -521,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -575,6 +584,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -891,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{286198A3-1C43-4A2F-9EA1-377E6EDEF1D5}">
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -911,7 +923,7 @@
     <col min="13" max="13" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -954,8 +966,11 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O1" s="21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -992,8 +1007,11 @@
         <v>4.37</v>
       </c>
       <c r="N2" s="8"/>
-    </row>
-    <row r="3" spans="1:14" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>14</v>
       </c>
@@ -1030,8 +1048,11 @@
         <v>5.41</v>
       </c>
       <c r="N3" s="13"/>
-    </row>
-    <row r="4" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -1051,7 +1072,7 @@
         <v>1294.4880075599999</v>
       </c>
       <c r="G4" s="7">
-        <v>1420.0642278958762</v>
+        <v>1420.0642278958801</v>
       </c>
       <c r="H4" s="7">
         <v>95.187098900886198</v>
@@ -1070,8 +1091,11 @@
       <c r="N4" s="8">
         <v>1.24</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>14</v>
       </c>
@@ -1109,7 +1133,7 @@
       </c>
       <c r="N5" s="13"/>
     </row>
-    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1149,7 +1173,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
@@ -1183,7 +1207,7 @@
       <c r="M7" s="14"/>
       <c r="N7" s="12"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
@@ -1217,7 +1241,7 @@
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>27</v>
       </c>
@@ -1251,7 +1275,7 @@
       <c r="M9" s="14"/>
       <c r="N9" s="12"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
@@ -1285,7 +1309,7 @@
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>27</v>
       </c>
@@ -1319,7 +1343,7 @@
       <c r="M11" s="14"/>
       <c r="N11" s="12"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
@@ -1353,7 +1377,7 @@
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>27</v>
       </c>
@@ -1387,7 +1411,7 @@
       <c r="M13" s="14"/>
       <c r="N13" s="12"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
@@ -1421,7 +1445,7 @@
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>27</v>
       </c>
@@ -1455,7 +1479,7 @@
       <c r="M15" s="14"/>
       <c r="N15" s="12"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>27</v>
       </c>
